--- a/src/test/java/com/test/automation/uiAutomation/Data/TestSuite1Data.xlsx
+++ b/src/test/java/com/test/automation/uiAutomation/Data/TestSuite1Data.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14970" windowHeight="6225"/>
+    <workbookView xWindow="6540" yWindow="3900" windowWidth="14970" windowHeight="6225"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="2" r:id="rId1"/>
+    <sheet name="TC02" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <oleSize ref="A1:N19"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>password</t>
   </si>
@@ -402,7 +403,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -436,4 +437,45 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/java/com/test/automation/uiAutomation/Data/TestSuite1Data.xlsx
+++ b/src/test/java/com/test/automation/uiAutomation/Data/TestSuite1Data.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="3900" windowWidth="14970" windowHeight="6225"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="20040" windowHeight="6225" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="2" r:id="rId1"/>
     <sheet name="TC02" sheetId="3" r:id="rId2"/>
+    <sheet name="TC03" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:N19"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>password</t>
   </si>
@@ -39,6 +39,138 @@
   </si>
   <si>
     <t>IPMN\Admin1</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Engagement</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Financials</t>
+  </si>
+  <si>
+    <t>CallsMenu</t>
+  </si>
+  <si>
+    <t>PatientsMenu</t>
+  </si>
+  <si>
+    <t>AppointmentsMenu</t>
+  </si>
+  <si>
+    <t>CheckInMenu</t>
+  </si>
+  <si>
+    <t>ClinicalTimeMenu</t>
+  </si>
+  <si>
+    <t>CheckoutMenu</t>
+  </si>
+  <si>
+    <t>PrescriptionMenu</t>
+  </si>
+  <si>
+    <t>MarketingMenu</t>
+  </si>
+  <si>
+    <t>BillingMenu</t>
+  </si>
+  <si>
+    <t>ClaimRejectionMenu</t>
+  </si>
+  <si>
+    <t>ReceivalblesMenu</t>
+  </si>
+  <si>
+    <t>ARMenu</t>
+  </si>
+  <si>
+    <t>DenialsMenu</t>
+  </si>
+  <si>
+    <t>WriteoffsMenu</t>
+  </si>
+  <si>
+    <t>PayerAnalysisMenu</t>
+  </si>
+  <si>
+    <t>CustomMenu</t>
+  </si>
+  <si>
+    <t>Calls</t>
+  </si>
+  <si>
+    <t>Patients</t>
+  </si>
+  <si>
+    <t>Appointments</t>
+  </si>
+  <si>
+    <t>Check-In</t>
+  </si>
+  <si>
+    <t>Clinical Time</t>
+  </si>
+  <si>
+    <t>Check-Out</t>
+  </si>
+  <si>
+    <t>Prescription</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Claim Rejections</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>A/R</t>
+  </si>
+  <si>
+    <t>Denials</t>
+  </si>
+  <si>
+    <t>Write-offs</t>
+  </si>
+  <si>
+    <t>Payer Analysis</t>
+  </si>
+  <si>
+    <t>CPT Analysis</t>
+  </si>
+  <si>
+    <t>HomeMenu</t>
+  </si>
+  <si>
+    <t>EngagementMenu</t>
+  </si>
+  <si>
+    <t>PerformanceMenu</t>
+  </si>
+  <si>
+    <t>FinancialsMenu</t>
+  </si>
+  <si>
+    <t>Billing Volume</t>
+  </si>
+  <si>
+    <t>CPATitle</t>
+  </si>
+  <si>
+    <t>CPAInfoText</t>
+  </si>
+  <si>
+    <t>Review revenue trend to understand the health of the services. Look for trends in both charges and payments.</t>
+  </si>
+  <si>
+    <t>Charges/Payments/Adjustments summary</t>
   </si>
 </sst>
 </file>
@@ -95,10 +227,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,14 +535,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -441,19 +578,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="9" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="18.5703125" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -463,8 +618,71 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -472,7 +690,132 @@
         <v>3</v>
       </c>
       <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2">
         <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="D9" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="65.140625" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/test/automation/uiAutomation/Data/TestSuite1Data.xlsx
+++ b/src/test/java/com/test/automation/uiAutomation/Data/TestSuite1Data.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="20040" windowHeight="6225" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="20040" windowHeight="6225" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="2" r:id="rId1"/>
-    <sheet name="TC02" sheetId="3" r:id="rId2"/>
-    <sheet name="TC03" sheetId="4" r:id="rId3"/>
+    <sheet name="TC02" sheetId="5" r:id="rId2"/>
+    <sheet name="TC03" sheetId="6" r:id="rId3"/>
+    <sheet name="TC04" sheetId="7" r:id="rId4"/>
+    <sheet name="TC05" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>password</t>
   </si>
@@ -35,9 +37,6 @@
     <t>username</t>
   </si>
   <si>
-    <t>WSCAdmin</t>
-  </si>
-  <si>
     <t>IPMN\Admin1</t>
   </si>
   <si>
@@ -171,6 +170,69 @@
   </si>
   <si>
     <t>Charges/Payments/Adjustments summary</t>
+  </si>
+  <si>
+    <t>BillingStatusTitle</t>
+  </si>
+  <si>
+    <t>BillingStatusInfoText</t>
+  </si>
+  <si>
+    <t>Daily billing status</t>
+  </si>
+  <si>
+    <t>DailyVisitsBillsTitle</t>
+  </si>
+  <si>
+    <t>Daily visits and bills created</t>
+  </si>
+  <si>
+    <t>DailyVisitsBillsInfoText</t>
+  </si>
+  <si>
+    <t>BillSubmissionTitle</t>
+  </si>
+  <si>
+    <t>Bill and submission lag</t>
+  </si>
+  <si>
+    <t>BillSubmissionInfoText</t>
+  </si>
+  <si>
+    <t>BillingBacklogTitle</t>
+  </si>
+  <si>
+    <t>Daily billing backlog</t>
+  </si>
+  <si>
+    <t>BillingBacklogInfoText</t>
+  </si>
+  <si>
+    <t>Review the billing process preformance. Look for trends above or below average.</t>
+  </si>
+  <si>
+    <t>DailyUnsignedTitle</t>
+  </si>
+  <si>
+    <t>DailyUnsignedInfoText</t>
+  </si>
+  <si>
+    <t>Daily unsigned</t>
+  </si>
+  <si>
+    <t>Displays various available billing status. Daily backlog (bills to be submitted / resubmitted), bills created( specific day), On hold (due to missing information etc.), pending signoff by provider and bills submitted on a day. Helps manage the backlog. Look for trends above or below average</t>
+  </si>
+  <si>
+    <t>Visit represents the patient encounters and bills refers to claims related to visits. Volume trend is key indicator to manage the utilization and billing process productivity. Review the variances to optimize.</t>
+  </si>
+  <si>
+    <t>Average Day difference between Date of Service and Bill Submitted. Review the lag process to drive improvement effort.</t>
+  </si>
+  <si>
+    <t>Review the process hold up. Follow up if the unsigned bills are increasing above the acceptable level.</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -231,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,7 +598,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -562,10 +624,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -578,35 +640,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="9" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" customWidth="1"/>
-    <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
-    <col min="23" max="23" width="18.5703125" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
@@ -619,154 +659,142 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>30</v>
       </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>33</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>34</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>35</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>36</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>37</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>38</v>
       </c>
-      <c r="X2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="D9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -775,10 +803,163 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -798,24 +979,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
